--- a/DataBase/DriverDB/DriverDB.xlsx
+++ b/DataBase/DriverDB/DriverDB.xlsx
@@ -1048,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
